--- a/METRICHE.xlsx
+++ b/METRICHE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrassi/Desktop/MATERIALE_TESI_COMPLETO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrassi/Desktop/MATERIALE_TESI_COMPLETO/materiale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFC3EF1-91C8-A54A-956E-7A57F5255AD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA338A0-0184-984A-9F9A-9075BD38C2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1480" windowWidth="25580" windowHeight="15320" xr2:uid="{64C5334F-28BF-BB47-B702-109E7C630CBD}"/>
   </bookViews>
@@ -1436,20 +1436,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,10 +1463,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,96 +1851,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="31" x14ac:dyDescent="0.35">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="K1" s="117" t="s">
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="K1" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="T1" s="117" t="s">
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="T1" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AC1" s="114" t="s">
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AC1" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AL1" s="114" t="s">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AL1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AU1" s="114" t="s">
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AU1" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="114"/>
-      <c r="AZ1" s="114"/>
-      <c r="BA1" s="114"/>
-      <c r="BB1" s="114"/>
-      <c r="BD1" s="125" t="s">
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122"/>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122"/>
+      <c r="BA1" s="122"/>
+      <c r="BB1" s="122"/>
+      <c r="BD1" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="BE1" s="125"/>
-      <c r="BF1" s="125"/>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
-      <c r="BI1" s="125"/>
-      <c r="BJ1" s="125"/>
-      <c r="BK1" s="125"/>
-      <c r="BM1" s="125" t="s">
+      <c r="BE1" s="121"/>
+      <c r="BF1" s="121"/>
+      <c r="BG1" s="121"/>
+      <c r="BH1" s="121"/>
+      <c r="BI1" s="121"/>
+      <c r="BJ1" s="121"/>
+      <c r="BK1" s="121"/>
+      <c r="BM1" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" s="125"/>
-      <c r="BO1" s="125"/>
-      <c r="BP1" s="125"/>
-      <c r="BQ1" s="125"/>
-      <c r="BR1" s="125"/>
-      <c r="BS1" s="125"/>
-      <c r="BT1" s="125"/>
-      <c r="BV1" s="125" t="s">
+      <c r="BN1" s="121"/>
+      <c r="BO1" s="121"/>
+      <c r="BP1" s="121"/>
+      <c r="BQ1" s="121"/>
+      <c r="BR1" s="121"/>
+      <c r="BS1" s="121"/>
+      <c r="BT1" s="121"/>
+      <c r="BV1" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="BW1" s="125"/>
-      <c r="BX1" s="125"/>
-      <c r="BY1" s="125"/>
-      <c r="BZ1" s="125"/>
-      <c r="CA1" s="125"/>
-      <c r="CB1" s="125"/>
-      <c r="CC1" s="125"/>
+      <c r="BW1" s="121"/>
+      <c r="BX1" s="121"/>
+      <c r="BY1" s="121"/>
+      <c r="BZ1" s="121"/>
+      <c r="CA1" s="121"/>
+      <c r="CB1" s="121"/>
+      <c r="CC1" s="121"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -32503,24 +32503,24 @@
       </c>
     </row>
     <row r="124" spans="2:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="118" t="s">
+      <c r="B124" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="118"/>
-      <c r="D124" s="118"/>
-      <c r="E124" s="118"/>
-      <c r="F124" s="118"/>
-      <c r="G124" s="118"/>
-      <c r="H124" s="118"/>
-      <c r="I124" s="118"/>
-      <c r="J124" s="118"/>
-      <c r="K124" s="118"/>
-      <c r="L124" s="118"/>
-      <c r="M124" s="118"/>
-      <c r="N124" s="118"/>
-      <c r="O124" s="118"/>
-      <c r="P124" s="118"/>
-      <c r="Q124" s="118"/>
+      <c r="C124" s="114"/>
+      <c r="D124" s="114"/>
+      <c r="E124" s="114"/>
+      <c r="F124" s="114"/>
+      <c r="G124" s="114"/>
+      <c r="H124" s="114"/>
+      <c r="I124" s="114"/>
+      <c r="J124" s="114"/>
+      <c r="K124" s="114"/>
+      <c r="L124" s="114"/>
+      <c r="M124" s="114"/>
+      <c r="N124" s="114"/>
+      <c r="O124" s="114"/>
+      <c r="P124" s="114"/>
+      <c r="Q124" s="114"/>
       <c r="AC124" s="33">
         <f>AC118/(AC118+AC120+AC122)*100</f>
         <v>59.090909090909093</v>
@@ -32619,102 +32619,102 @@
       </c>
     </row>
     <row r="125" spans="2:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="118"/>
-      <c r="C125" s="118"/>
-      <c r="D125" s="118"/>
-      <c r="E125" s="118"/>
-      <c r="F125" s="118"/>
-      <c r="G125" s="118"/>
-      <c r="H125" s="118"/>
-      <c r="I125" s="118"/>
-      <c r="J125" s="118"/>
-      <c r="K125" s="118"/>
-      <c r="L125" s="118"/>
-      <c r="M125" s="118"/>
-      <c r="N125" s="118"/>
-      <c r="O125" s="118"/>
-      <c r="P125" s="118"/>
-      <c r="Q125" s="118"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
+      <c r="G125" s="114"/>
+      <c r="H125" s="114"/>
+      <c r="I125" s="114"/>
+      <c r="J125" s="114"/>
+      <c r="K125" s="114"/>
+      <c r="L125" s="114"/>
+      <c r="M125" s="114"/>
+      <c r="N125" s="114"/>
+      <c r="O125" s="114"/>
+      <c r="P125" s="114"/>
+      <c r="Q125" s="114"/>
     </row>
     <row r="126" spans="2:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="118"/>
-      <c r="C126" s="118"/>
-      <c r="D126" s="118"/>
-      <c r="E126" s="118"/>
-      <c r="F126" s="118"/>
-      <c r="G126" s="118"/>
-      <c r="H126" s="118"/>
-      <c r="I126" s="118"/>
-      <c r="J126" s="118"/>
-      <c r="K126" s="118"/>
-      <c r="L126" s="118"/>
-      <c r="M126" s="118"/>
-      <c r="N126" s="118"/>
-      <c r="O126" s="118"/>
-      <c r="P126" s="118"/>
-      <c r="Q126" s="118"/>
+      <c r="B126" s="114"/>
+      <c r="C126" s="114"/>
+      <c r="D126" s="114"/>
+      <c r="E126" s="114"/>
+      <c r="F126" s="114"/>
+      <c r="G126" s="114"/>
+      <c r="H126" s="114"/>
+      <c r="I126" s="114"/>
+      <c r="J126" s="114"/>
+      <c r="K126" s="114"/>
+      <c r="L126" s="114"/>
+      <c r="M126" s="114"/>
+      <c r="N126" s="114"/>
+      <c r="O126" s="114"/>
+      <c r="P126" s="114"/>
+      <c r="Q126" s="114"/>
     </row>
     <row r="127" spans="2:54" ht="31" x14ac:dyDescent="0.35">
-      <c r="B127" s="115" t="s">
+      <c r="B127" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="116"/>
-      <c r="D127" s="116"/>
-      <c r="E127" s="116"/>
-      <c r="F127" s="116"/>
-      <c r="G127" s="116"/>
-      <c r="H127" s="116"/>
-      <c r="I127" s="116"/>
-      <c r="K127" s="117" t="s">
+      <c r="C127" s="124"/>
+      <c r="D127" s="124"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="124"/>
+      <c r="G127" s="124"/>
+      <c r="H127" s="124"/>
+      <c r="I127" s="124"/>
+      <c r="K127" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="L127" s="117"/>
-      <c r="M127" s="117"/>
-      <c r="N127" s="117"/>
-      <c r="O127" s="117"/>
-      <c r="P127" s="117"/>
-      <c r="Q127" s="117"/>
-      <c r="R127" s="117"/>
-      <c r="T127" s="117" t="s">
+      <c r="L127" s="125"/>
+      <c r="M127" s="125"/>
+      <c r="N127" s="125"/>
+      <c r="O127" s="125"/>
+      <c r="P127" s="125"/>
+      <c r="Q127" s="125"/>
+      <c r="R127" s="125"/>
+      <c r="T127" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="U127" s="117"/>
-      <c r="V127" s="117"/>
-      <c r="W127" s="117"/>
-      <c r="X127" s="117"/>
-      <c r="Y127" s="117"/>
-      <c r="Z127" s="117"/>
-      <c r="AA127" s="117"/>
-      <c r="AC127" s="114" t="s">
+      <c r="U127" s="125"/>
+      <c r="V127" s="125"/>
+      <c r="W127" s="125"/>
+      <c r="X127" s="125"/>
+      <c r="Y127" s="125"/>
+      <c r="Z127" s="125"/>
+      <c r="AA127" s="125"/>
+      <c r="AC127" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="AD127" s="114"/>
-      <c r="AE127" s="114"/>
-      <c r="AF127" s="114"/>
-      <c r="AG127" s="114"/>
-      <c r="AH127" s="114"/>
-      <c r="AI127" s="114"/>
-      <c r="AJ127" s="114"/>
-      <c r="AL127" s="114" t="s">
+      <c r="AD127" s="122"/>
+      <c r="AE127" s="122"/>
+      <c r="AF127" s="122"/>
+      <c r="AG127" s="122"/>
+      <c r="AH127" s="122"/>
+      <c r="AI127" s="122"/>
+      <c r="AJ127" s="122"/>
+      <c r="AL127" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="AM127" s="114"/>
-      <c r="AN127" s="114"/>
-      <c r="AO127" s="114"/>
-      <c r="AP127" s="114"/>
-      <c r="AQ127" s="114"/>
-      <c r="AR127" s="114"/>
-      <c r="AS127" s="114"/>
-      <c r="AU127" s="114" t="s">
+      <c r="AM127" s="122"/>
+      <c r="AN127" s="122"/>
+      <c r="AO127" s="122"/>
+      <c r="AP127" s="122"/>
+      <c r="AQ127" s="122"/>
+      <c r="AR127" s="122"/>
+      <c r="AS127" s="122"/>
+      <c r="AU127" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="AV127" s="114"/>
-      <c r="AW127" s="114"/>
-      <c r="AX127" s="114"/>
-      <c r="AY127" s="114"/>
-      <c r="AZ127" s="114"/>
-      <c r="BA127" s="114"/>
-      <c r="BB127" s="114"/>
+      <c r="AV127" s="122"/>
+      <c r="AW127" s="122"/>
+      <c r="AX127" s="122"/>
+      <c r="AY127" s="122"/>
+      <c r="AZ127" s="122"/>
+      <c r="BA127" s="122"/>
+      <c r="BB127" s="122"/>
     </row>
     <row r="128" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
@@ -39881,24 +39881,24 @@
       <c r="BB199" s="126"/>
     </row>
     <row r="200" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B200" s="118" t="s">
+      <c r="B200" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="C200" s="118"/>
-      <c r="D200" s="118"/>
-      <c r="E200" s="118"/>
-      <c r="F200" s="118"/>
-      <c r="G200" s="118"/>
-      <c r="H200" s="118"/>
-      <c r="I200" s="118"/>
-      <c r="J200" s="118"/>
-      <c r="K200" s="118"/>
-      <c r="L200" s="118"/>
-      <c r="M200" s="118"/>
-      <c r="N200" s="118"/>
-      <c r="O200" s="118"/>
-      <c r="P200" s="118"/>
-      <c r="Q200" s="118"/>
+      <c r="C200" s="114"/>
+      <c r="D200" s="114"/>
+      <c r="E200" s="114"/>
+      <c r="F200" s="114"/>
+      <c r="G200" s="114"/>
+      <c r="H200" s="114"/>
+      <c r="I200" s="114"/>
+      <c r="J200" s="114"/>
+      <c r="K200" s="114"/>
+      <c r="L200" s="114"/>
+      <c r="M200" s="114"/>
+      <c r="N200" s="114"/>
+      <c r="O200" s="114"/>
+      <c r="P200" s="114"/>
+      <c r="Q200" s="114"/>
       <c r="AC200" s="94">
         <v>59.090909089999997</v>
       </c>
@@ -39973,102 +39973,102 @@
       </c>
     </row>
     <row r="201" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B201" s="118"/>
-      <c r="C201" s="118"/>
-      <c r="D201" s="118"/>
-      <c r="E201" s="118"/>
-      <c r="F201" s="118"/>
-      <c r="G201" s="118"/>
-      <c r="H201" s="118"/>
-      <c r="I201" s="118"/>
-      <c r="J201" s="118"/>
-      <c r="K201" s="118"/>
-      <c r="L201" s="118"/>
-      <c r="M201" s="118"/>
-      <c r="N201" s="118"/>
-      <c r="O201" s="118"/>
-      <c r="P201" s="118"/>
-      <c r="Q201" s="118"/>
+      <c r="B201" s="114"/>
+      <c r="C201" s="114"/>
+      <c r="D201" s="114"/>
+      <c r="E201" s="114"/>
+      <c r="F201" s="114"/>
+      <c r="G201" s="114"/>
+      <c r="H201" s="114"/>
+      <c r="I201" s="114"/>
+      <c r="J201" s="114"/>
+      <c r="K201" s="114"/>
+      <c r="L201" s="114"/>
+      <c r="M201" s="114"/>
+      <c r="N201" s="114"/>
+      <c r="O201" s="114"/>
+      <c r="P201" s="114"/>
+      <c r="Q201" s="114"/>
     </row>
     <row r="202" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B202" s="118"/>
-      <c r="C202" s="118"/>
-      <c r="D202" s="118"/>
-      <c r="E202" s="118"/>
-      <c r="F202" s="118"/>
-      <c r="G202" s="118"/>
-      <c r="H202" s="118"/>
-      <c r="I202" s="118"/>
-      <c r="J202" s="118"/>
-      <c r="K202" s="118"/>
-      <c r="L202" s="118"/>
-      <c r="M202" s="118"/>
-      <c r="N202" s="118"/>
-      <c r="O202" s="118"/>
-      <c r="P202" s="118"/>
-      <c r="Q202" s="118"/>
+      <c r="B202" s="114"/>
+      <c r="C202" s="114"/>
+      <c r="D202" s="114"/>
+      <c r="E202" s="114"/>
+      <c r="F202" s="114"/>
+      <c r="G202" s="114"/>
+      <c r="H202" s="114"/>
+      <c r="I202" s="114"/>
+      <c r="J202" s="114"/>
+      <c r="K202" s="114"/>
+      <c r="L202" s="114"/>
+      <c r="M202" s="114"/>
+      <c r="N202" s="114"/>
+      <c r="O202" s="114"/>
+      <c r="P202" s="114"/>
+      <c r="Q202" s="114"/>
     </row>
     <row r="203" spans="1:54" ht="31" x14ac:dyDescent="0.35">
-      <c r="B203" s="115" t="s">
+      <c r="B203" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C203" s="116"/>
-      <c r="D203" s="116"/>
-      <c r="E203" s="116"/>
-      <c r="F203" s="116"/>
-      <c r="G203" s="116"/>
-      <c r="H203" s="116"/>
-      <c r="I203" s="116"/>
-      <c r="K203" s="117" t="s">
+      <c r="C203" s="124"/>
+      <c r="D203" s="124"/>
+      <c r="E203" s="124"/>
+      <c r="F203" s="124"/>
+      <c r="G203" s="124"/>
+      <c r="H203" s="124"/>
+      <c r="I203" s="124"/>
+      <c r="K203" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="L203" s="117"/>
-      <c r="M203" s="117"/>
-      <c r="N203" s="117"/>
-      <c r="O203" s="117"/>
-      <c r="P203" s="117"/>
-      <c r="Q203" s="117"/>
-      <c r="R203" s="117"/>
-      <c r="T203" s="117" t="s">
+      <c r="L203" s="125"/>
+      <c r="M203" s="125"/>
+      <c r="N203" s="125"/>
+      <c r="O203" s="125"/>
+      <c r="P203" s="125"/>
+      <c r="Q203" s="125"/>
+      <c r="R203" s="125"/>
+      <c r="T203" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="U203" s="117"/>
-      <c r="V203" s="117"/>
-      <c r="W203" s="117"/>
-      <c r="X203" s="117"/>
-      <c r="Y203" s="117"/>
-      <c r="Z203" s="117"/>
-      <c r="AA203" s="117"/>
-      <c r="AC203" s="114" t="s">
+      <c r="U203" s="125"/>
+      <c r="V203" s="125"/>
+      <c r="W203" s="125"/>
+      <c r="X203" s="125"/>
+      <c r="Y203" s="125"/>
+      <c r="Z203" s="125"/>
+      <c r="AA203" s="125"/>
+      <c r="AC203" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="AD203" s="114"/>
-      <c r="AE203" s="114"/>
-      <c r="AF203" s="114"/>
-      <c r="AG203" s="114"/>
-      <c r="AH203" s="114"/>
-      <c r="AI203" s="114"/>
-      <c r="AJ203" s="114"/>
-      <c r="AL203" s="114" t="s">
+      <c r="AD203" s="122"/>
+      <c r="AE203" s="122"/>
+      <c r="AF203" s="122"/>
+      <c r="AG203" s="122"/>
+      <c r="AH203" s="122"/>
+      <c r="AI203" s="122"/>
+      <c r="AJ203" s="122"/>
+      <c r="AL203" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="AM203" s="114"/>
-      <c r="AN203" s="114"/>
-      <c r="AO203" s="114"/>
-      <c r="AP203" s="114"/>
-      <c r="AQ203" s="114"/>
-      <c r="AR203" s="114"/>
-      <c r="AS203" s="114"/>
-      <c r="AU203" s="114" t="s">
+      <c r="AM203" s="122"/>
+      <c r="AN203" s="122"/>
+      <c r="AO203" s="122"/>
+      <c r="AP203" s="122"/>
+      <c r="AQ203" s="122"/>
+      <c r="AR203" s="122"/>
+      <c r="AS203" s="122"/>
+      <c r="AU203" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="AV203" s="114"/>
-      <c r="AW203" s="114"/>
-      <c r="AX203" s="114"/>
-      <c r="AY203" s="114"/>
-      <c r="AZ203" s="114"/>
-      <c r="BA203" s="114"/>
-      <c r="BB203" s="114"/>
+      <c r="AV203" s="122"/>
+      <c r="AW203" s="122"/>
+      <c r="AX203" s="122"/>
+      <c r="AY203" s="122"/>
+      <c r="AZ203" s="122"/>
+      <c r="BA203" s="122"/>
+      <c r="BB203" s="122"/>
     </row>
     <row r="204" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B204" s="9" t="s">
@@ -45582,10 +45582,10 @@
       </c>
     </row>
     <row r="239" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A239" s="113" t="s">
+      <c r="A239" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="B239" s="113"/>
+      <c r="B239" s="127"/>
       <c r="AC239" s="86">
         <f>COUNTIF(AC205:AC234, "&gt;0")</f>
         <v>18</v>
@@ -45684,8 +45684,8 @@
       </c>
     </row>
     <row r="240" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="113"/>
-      <c r="B240" s="113"/>
+      <c r="A240" s="127"/>
+      <c r="B240" s="127"/>
       <c r="AC240" s="87" t="s">
         <v>128</v>
       </c>
@@ -46223,62 +46223,62 @@
       </c>
     </row>
     <row r="246" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC246" s="127" t="s">
+      <c r="AC246" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="AD246" s="127"/>
-      <c r="AE246" s="127"/>
-      <c r="AF246" s="127"/>
-      <c r="AG246" s="127"/>
-      <c r="AH246" s="127"/>
-      <c r="AI246" s="127"/>
-      <c r="AJ246" s="127"/>
-      <c r="AL246" s="127" t="s">
+      <c r="AD246" s="113"/>
+      <c r="AE246" s="113"/>
+      <c r="AF246" s="113"/>
+      <c r="AG246" s="113"/>
+      <c r="AH246" s="113"/>
+      <c r="AI246" s="113"/>
+      <c r="AJ246" s="113"/>
+      <c r="AL246" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="AM246" s="127"/>
-      <c r="AN246" s="127"/>
-      <c r="AO246" s="127"/>
-      <c r="AP246" s="127"/>
-      <c r="AQ246" s="127"/>
-      <c r="AR246" s="127"/>
-      <c r="AS246" s="127"/>
-      <c r="AU246" s="127" t="s">
+      <c r="AM246" s="113"/>
+      <c r="AN246" s="113"/>
+      <c r="AO246" s="113"/>
+      <c r="AP246" s="113"/>
+      <c r="AQ246" s="113"/>
+      <c r="AR246" s="113"/>
+      <c r="AS246" s="113"/>
+      <c r="AU246" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="AV246" s="127"/>
-      <c r="AW246" s="127"/>
-      <c r="AX246" s="127"/>
-      <c r="AY246" s="127"/>
-      <c r="AZ246" s="127"/>
-      <c r="BA246" s="127"/>
-      <c r="BB246" s="127"/>
+      <c r="AV246" s="113"/>
+      <c r="AW246" s="113"/>
+      <c r="AX246" s="113"/>
+      <c r="AY246" s="113"/>
+      <c r="AZ246" s="113"/>
+      <c r="BA246" s="113"/>
+      <c r="BB246" s="113"/>
     </row>
     <row r="247" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC247" s="127"/>
-      <c r="AD247" s="127"/>
-      <c r="AE247" s="127"/>
-      <c r="AF247" s="127"/>
-      <c r="AG247" s="127"/>
-      <c r="AH247" s="127"/>
-      <c r="AI247" s="127"/>
-      <c r="AJ247" s="127"/>
-      <c r="AL247" s="127"/>
-      <c r="AM247" s="127"/>
-      <c r="AN247" s="127"/>
-      <c r="AO247" s="127"/>
-      <c r="AP247" s="127"/>
-      <c r="AQ247" s="127"/>
-      <c r="AR247" s="127"/>
-      <c r="AS247" s="127"/>
-      <c r="AU247" s="127"/>
-      <c r="AV247" s="127"/>
-      <c r="AW247" s="127"/>
-      <c r="AX247" s="127"/>
-      <c r="AY247" s="127"/>
-      <c r="AZ247" s="127"/>
-      <c r="BA247" s="127"/>
-      <c r="BB247" s="127"/>
+      <c r="AC247" s="113"/>
+      <c r="AD247" s="113"/>
+      <c r="AE247" s="113"/>
+      <c r="AF247" s="113"/>
+      <c r="AG247" s="113"/>
+      <c r="AH247" s="113"/>
+      <c r="AI247" s="113"/>
+      <c r="AJ247" s="113"/>
+      <c r="AL247" s="113"/>
+      <c r="AM247" s="113"/>
+      <c r="AN247" s="113"/>
+      <c r="AO247" s="113"/>
+      <c r="AP247" s="113"/>
+      <c r="AQ247" s="113"/>
+      <c r="AR247" s="113"/>
+      <c r="AS247" s="113"/>
+      <c r="AU247" s="113"/>
+      <c r="AV247" s="113"/>
+      <c r="AW247" s="113"/>
+      <c r="AX247" s="113"/>
+      <c r="AY247" s="113"/>
+      <c r="AZ247" s="113"/>
+      <c r="BA247" s="113"/>
+      <c r="BB247" s="113"/>
     </row>
     <row r="248" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AC248" s="85" t="s">
@@ -46969,62 +46969,62 @@
       </c>
     </row>
     <row r="256" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AC256" s="127" t="s">
+      <c r="AC256" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="AD256" s="127"/>
-      <c r="AE256" s="127"/>
-      <c r="AF256" s="127"/>
-      <c r="AG256" s="127"/>
-      <c r="AH256" s="127"/>
-      <c r="AI256" s="127"/>
-      <c r="AJ256" s="127"/>
-      <c r="AL256" s="127" t="s">
+      <c r="AD256" s="113"/>
+      <c r="AE256" s="113"/>
+      <c r="AF256" s="113"/>
+      <c r="AG256" s="113"/>
+      <c r="AH256" s="113"/>
+      <c r="AI256" s="113"/>
+      <c r="AJ256" s="113"/>
+      <c r="AL256" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="AM256" s="127"/>
-      <c r="AN256" s="127"/>
-      <c r="AO256" s="127"/>
-      <c r="AP256" s="127"/>
-      <c r="AQ256" s="127"/>
-      <c r="AR256" s="127"/>
-      <c r="AS256" s="127"/>
-      <c r="AU256" s="127" t="s">
+      <c r="AM256" s="113"/>
+      <c r="AN256" s="113"/>
+      <c r="AO256" s="113"/>
+      <c r="AP256" s="113"/>
+      <c r="AQ256" s="113"/>
+      <c r="AR256" s="113"/>
+      <c r="AS256" s="113"/>
+      <c r="AU256" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="AV256" s="127"/>
-      <c r="AW256" s="127"/>
-      <c r="AX256" s="127"/>
-      <c r="AY256" s="127"/>
-      <c r="AZ256" s="127"/>
-      <c r="BA256" s="127"/>
-      <c r="BB256" s="127"/>
+      <c r="AV256" s="113"/>
+      <c r="AW256" s="113"/>
+      <c r="AX256" s="113"/>
+      <c r="AY256" s="113"/>
+      <c r="AZ256" s="113"/>
+      <c r="BA256" s="113"/>
+      <c r="BB256" s="113"/>
     </row>
     <row r="257" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AC257" s="127"/>
-      <c r="AD257" s="127"/>
-      <c r="AE257" s="127"/>
-      <c r="AF257" s="127"/>
-      <c r="AG257" s="127"/>
-      <c r="AH257" s="127"/>
-      <c r="AI257" s="127"/>
-      <c r="AJ257" s="127"/>
-      <c r="AL257" s="127"/>
-      <c r="AM257" s="127"/>
-      <c r="AN257" s="127"/>
-      <c r="AO257" s="127"/>
-      <c r="AP257" s="127"/>
-      <c r="AQ257" s="127"/>
-      <c r="AR257" s="127"/>
-      <c r="AS257" s="127"/>
-      <c r="AU257" s="127"/>
-      <c r="AV257" s="127"/>
-      <c r="AW257" s="127"/>
-      <c r="AX257" s="127"/>
-      <c r="AY257" s="127"/>
-      <c r="AZ257" s="127"/>
-      <c r="BA257" s="127"/>
-      <c r="BB257" s="127"/>
+      <c r="AC257" s="113"/>
+      <c r="AD257" s="113"/>
+      <c r="AE257" s="113"/>
+      <c r="AF257" s="113"/>
+      <c r="AG257" s="113"/>
+      <c r="AH257" s="113"/>
+      <c r="AI257" s="113"/>
+      <c r="AJ257" s="113"/>
+      <c r="AL257" s="113"/>
+      <c r="AM257" s="113"/>
+      <c r="AN257" s="113"/>
+      <c r="AO257" s="113"/>
+      <c r="AP257" s="113"/>
+      <c r="AQ257" s="113"/>
+      <c r="AR257" s="113"/>
+      <c r="AS257" s="113"/>
+      <c r="AU257" s="113"/>
+      <c r="AV257" s="113"/>
+      <c r="AW257" s="113"/>
+      <c r="AX257" s="113"/>
+      <c r="AY257" s="113"/>
+      <c r="AZ257" s="113"/>
+      <c r="BA257" s="113"/>
+      <c r="BB257" s="113"/>
     </row>
     <row r="258" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AC258" s="85" t="s">
@@ -47715,76 +47715,76 @@
       </c>
     </row>
     <row r="267" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="119" t="s">
+      <c r="B267" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="C267" s="120"/>
-      <c r="D267" s="120"/>
-      <c r="E267" s="120"/>
-      <c r="F267" s="120"/>
-      <c r="G267" s="120"/>
-      <c r="H267" s="120"/>
-      <c r="I267" s="120"/>
-      <c r="J267" s="120"/>
-      <c r="K267" s="120"/>
-      <c r="L267" s="120"/>
-      <c r="M267" s="120"/>
-      <c r="N267" s="120"/>
-      <c r="O267" s="120"/>
-      <c r="P267" s="120"/>
-      <c r="Q267" s="121"/>
-      <c r="T267" s="119" t="s">
+      <c r="C267" s="116"/>
+      <c r="D267" s="116"/>
+      <c r="E267" s="116"/>
+      <c r="F267" s="116"/>
+      <c r="G267" s="116"/>
+      <c r="H267" s="116"/>
+      <c r="I267" s="116"/>
+      <c r="J267" s="116"/>
+      <c r="K267" s="116"/>
+      <c r="L267" s="116"/>
+      <c r="M267" s="116"/>
+      <c r="N267" s="116"/>
+      <c r="O267" s="116"/>
+      <c r="P267" s="116"/>
+      <c r="Q267" s="117"/>
+      <c r="T267" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="U267" s="120"/>
-      <c r="V267" s="120"/>
-      <c r="W267" s="120"/>
-      <c r="X267" s="120"/>
-      <c r="Y267" s="120"/>
-      <c r="Z267" s="120"/>
-      <c r="AA267" s="120"/>
-      <c r="AB267" s="120"/>
-      <c r="AC267" s="120"/>
-      <c r="AD267" s="120"/>
-      <c r="AE267" s="120"/>
-      <c r="AF267" s="120"/>
-      <c r="AG267" s="120"/>
-      <c r="AH267" s="120"/>
-      <c r="AI267" s="121"/>
+      <c r="U267" s="116"/>
+      <c r="V267" s="116"/>
+      <c r="W267" s="116"/>
+      <c r="X267" s="116"/>
+      <c r="Y267" s="116"/>
+      <c r="Z267" s="116"/>
+      <c r="AA267" s="116"/>
+      <c r="AB267" s="116"/>
+      <c r="AC267" s="116"/>
+      <c r="AD267" s="116"/>
+      <c r="AE267" s="116"/>
+      <c r="AF267" s="116"/>
+      <c r="AG267" s="116"/>
+      <c r="AH267" s="116"/>
+      <c r="AI267" s="117"/>
     </row>
     <row r="268" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B268" s="122"/>
-      <c r="C268" s="123"/>
-      <c r="D268" s="123"/>
-      <c r="E268" s="123"/>
-      <c r="F268" s="123"/>
-      <c r="G268" s="123"/>
-      <c r="H268" s="123"/>
-      <c r="I268" s="123"/>
-      <c r="J268" s="123"/>
-      <c r="K268" s="123"/>
-      <c r="L268" s="123"/>
-      <c r="M268" s="123"/>
-      <c r="N268" s="123"/>
-      <c r="O268" s="123"/>
-      <c r="P268" s="123"/>
-      <c r="Q268" s="124"/>
-      <c r="T268" s="122"/>
-      <c r="U268" s="123"/>
-      <c r="V268" s="123"/>
-      <c r="W268" s="123"/>
-      <c r="X268" s="123"/>
-      <c r="Y268" s="123"/>
-      <c r="Z268" s="123"/>
-      <c r="AA268" s="123"/>
-      <c r="AB268" s="123"/>
-      <c r="AC268" s="123"/>
-      <c r="AD268" s="123"/>
-      <c r="AE268" s="123"/>
-      <c r="AF268" s="123"/>
-      <c r="AG268" s="123"/>
-      <c r="AH268" s="123"/>
-      <c r="AI268" s="124"/>
+      <c r="B268" s="118"/>
+      <c r="C268" s="119"/>
+      <c r="D268" s="119"/>
+      <c r="E268" s="119"/>
+      <c r="F268" s="119"/>
+      <c r="G268" s="119"/>
+      <c r="H268" s="119"/>
+      <c r="I268" s="119"/>
+      <c r="J268" s="119"/>
+      <c r="K268" s="119"/>
+      <c r="L268" s="119"/>
+      <c r="M268" s="119"/>
+      <c r="N268" s="119"/>
+      <c r="O268" s="119"/>
+      <c r="P268" s="119"/>
+      <c r="Q268" s="120"/>
+      <c r="T268" s="118"/>
+      <c r="U268" s="119"/>
+      <c r="V268" s="119"/>
+      <c r="W268" s="119"/>
+      <c r="X268" s="119"/>
+      <c r="Y268" s="119"/>
+      <c r="Z268" s="119"/>
+      <c r="AA268" s="119"/>
+      <c r="AB268" s="119"/>
+      <c r="AC268" s="119"/>
+      <c r="AD268" s="119"/>
+      <c r="AE268" s="119"/>
+      <c r="AF268" s="119"/>
+      <c r="AG268" s="119"/>
+      <c r="AH268" s="119"/>
+      <c r="AI268" s="120"/>
     </row>
     <row r="269" spans="1:54" ht="100" x14ac:dyDescent="0.2">
       <c r="B269" s="53" t="s">
@@ -49087,12 +49087,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AC246:AJ247"/>
-    <mergeCell ref="AL246:AS247"/>
-    <mergeCell ref="AU246:BB247"/>
-    <mergeCell ref="AC256:AJ257"/>
-    <mergeCell ref="AL256:AS257"/>
-    <mergeCell ref="AU256:BB257"/>
+    <mergeCell ref="A239:B240"/>
+    <mergeCell ref="AU203:BB203"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="K203:R203"/>
+    <mergeCell ref="T203:AA203"/>
+    <mergeCell ref="AC203:AJ203"/>
+    <mergeCell ref="AL203:AS203"/>
+    <mergeCell ref="B127:I127"/>
+    <mergeCell ref="AU127:BB127"/>
+    <mergeCell ref="AL127:AS127"/>
+    <mergeCell ref="AC127:AJ127"/>
+    <mergeCell ref="T127:AA127"/>
+    <mergeCell ref="K127:R127"/>
     <mergeCell ref="B200:Q202"/>
     <mergeCell ref="T267:AI268"/>
     <mergeCell ref="B124:Q126"/>
@@ -49109,19 +49116,12 @@
     <mergeCell ref="AU199:BB199"/>
     <mergeCell ref="AL199:AS199"/>
     <mergeCell ref="AC199:AJ199"/>
-    <mergeCell ref="B127:I127"/>
-    <mergeCell ref="AU127:BB127"/>
-    <mergeCell ref="AL127:AS127"/>
-    <mergeCell ref="AC127:AJ127"/>
-    <mergeCell ref="T127:AA127"/>
-    <mergeCell ref="K127:R127"/>
-    <mergeCell ref="A239:B240"/>
-    <mergeCell ref="AU203:BB203"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="K203:R203"/>
-    <mergeCell ref="T203:AA203"/>
-    <mergeCell ref="AC203:AJ203"/>
-    <mergeCell ref="AL203:AS203"/>
+    <mergeCell ref="AC246:AJ247"/>
+    <mergeCell ref="AL246:AS247"/>
+    <mergeCell ref="AU246:BB247"/>
+    <mergeCell ref="AC256:AJ257"/>
+    <mergeCell ref="AL256:AS257"/>
+    <mergeCell ref="AU256:BB257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/METRICHE.xlsx
+++ b/METRICHE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrassi/Desktop/MATERIALE_TESI_COMPLETO/materiale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA338A0-0184-984A-9F9A-9075BD38C2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3733A-EF23-1A4B-A843-B5CCE103A745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1480" windowWidth="25580" windowHeight="15320" xr2:uid="{64C5334F-28BF-BB47-B702-109E7C630CBD}"/>
   </bookViews>
@@ -1436,8 +1436,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1463,22 +1475,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D595F9DD-E555-814C-BEA5-EBDB761A13F1}">
   <dimension ref="A1:CE299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z230" zoomScale="75" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
@@ -1851,96 +1851,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="31" x14ac:dyDescent="0.35">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="K1" s="125" t="s">
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="K1" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="T1" s="125" t="s">
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="T1" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AC1" s="122" t="s">
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AC1" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="122"/>
-      <c r="AL1" s="122" t="s">
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AL1" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="122"/>
-      <c r="AO1" s="122"/>
-      <c r="AP1" s="122"/>
-      <c r="AQ1" s="122"/>
-      <c r="AR1" s="122"/>
-      <c r="AS1" s="122"/>
-      <c r="AU1" s="122" t="s">
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AU1" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="AV1" s="122"/>
-      <c r="AW1" s="122"/>
-      <c r="AX1" s="122"/>
-      <c r="AY1" s="122"/>
-      <c r="AZ1" s="122"/>
-      <c r="BA1" s="122"/>
-      <c r="BB1" s="122"/>
-      <c r="BD1" s="121" t="s">
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
+      <c r="AX1" s="114"/>
+      <c r="AY1" s="114"/>
+      <c r="AZ1" s="114"/>
+      <c r="BA1" s="114"/>
+      <c r="BB1" s="114"/>
+      <c r="BD1" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="BE1" s="121"/>
-      <c r="BF1" s="121"/>
-      <c r="BG1" s="121"/>
-      <c r="BH1" s="121"/>
-      <c r="BI1" s="121"/>
-      <c r="BJ1" s="121"/>
-      <c r="BK1" s="121"/>
-      <c r="BM1" s="121" t="s">
+      <c r="BE1" s="125"/>
+      <c r="BF1" s="125"/>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="125"/>
+      <c r="BM1" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" s="121"/>
-      <c r="BO1" s="121"/>
-      <c r="BP1" s="121"/>
-      <c r="BQ1" s="121"/>
-      <c r="BR1" s="121"/>
-      <c r="BS1" s="121"/>
-      <c r="BT1" s="121"/>
-      <c r="BV1" s="121" t="s">
+      <c r="BN1" s="125"/>
+      <c r="BO1" s="125"/>
+      <c r="BP1" s="125"/>
+      <c r="BQ1" s="125"/>
+      <c r="BR1" s="125"/>
+      <c r="BS1" s="125"/>
+      <c r="BT1" s="125"/>
+      <c r="BV1" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="BW1" s="121"/>
-      <c r="BX1" s="121"/>
-      <c r="BY1" s="121"/>
-      <c r="BZ1" s="121"/>
-      <c r="CA1" s="121"/>
-      <c r="CB1" s="121"/>
-      <c r="CC1" s="121"/>
+      <c r="BW1" s="125"/>
+      <c r="BX1" s="125"/>
+      <c r="BY1" s="125"/>
+      <c r="BZ1" s="125"/>
+      <c r="CA1" s="125"/>
+      <c r="CB1" s="125"/>
+      <c r="CC1" s="125"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -32503,24 +32503,24 @@
       </c>
     </row>
     <row r="124" spans="2:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="114" t="s">
+      <c r="B124" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="114"/>
-      <c r="D124" s="114"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="114"/>
-      <c r="G124" s="114"/>
-      <c r="H124" s="114"/>
-      <c r="I124" s="114"/>
-      <c r="J124" s="114"/>
-      <c r="K124" s="114"/>
-      <c r="L124" s="114"/>
-      <c r="M124" s="114"/>
-      <c r="N124" s="114"/>
-      <c r="O124" s="114"/>
-      <c r="P124" s="114"/>
-      <c r="Q124" s="114"/>
+      <c r="C124" s="118"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
+      <c r="F124" s="118"/>
+      <c r="G124" s="118"/>
+      <c r="H124" s="118"/>
+      <c r="I124" s="118"/>
+      <c r="J124" s="118"/>
+      <c r="K124" s="118"/>
+      <c r="L124" s="118"/>
+      <c r="M124" s="118"/>
+      <c r="N124" s="118"/>
+      <c r="O124" s="118"/>
+      <c r="P124" s="118"/>
+      <c r="Q124" s="118"/>
       <c r="AC124" s="33">
         <f>AC118/(AC118+AC120+AC122)*100</f>
         <v>59.090909090909093</v>
@@ -32619,102 +32619,102 @@
       </c>
     </row>
     <row r="125" spans="2:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="114"/>
-      <c r="C125" s="114"/>
-      <c r="D125" s="114"/>
-      <c r="E125" s="114"/>
-      <c r="F125" s="114"/>
-      <c r="G125" s="114"/>
-      <c r="H125" s="114"/>
-      <c r="I125" s="114"/>
-      <c r="J125" s="114"/>
-      <c r="K125" s="114"/>
-      <c r="L125" s="114"/>
-      <c r="M125" s="114"/>
-      <c r="N125" s="114"/>
-      <c r="O125" s="114"/>
-      <c r="P125" s="114"/>
-      <c r="Q125" s="114"/>
+      <c r="B125" s="118"/>
+      <c r="C125" s="118"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
+      <c r="F125" s="118"/>
+      <c r="G125" s="118"/>
+      <c r="H125" s="118"/>
+      <c r="I125" s="118"/>
+      <c r="J125" s="118"/>
+      <c r="K125" s="118"/>
+      <c r="L125" s="118"/>
+      <c r="M125" s="118"/>
+      <c r="N125" s="118"/>
+      <c r="O125" s="118"/>
+      <c r="P125" s="118"/>
+      <c r="Q125" s="118"/>
     </row>
     <row r="126" spans="2:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="114"/>
-      <c r="C126" s="114"/>
-      <c r="D126" s="114"/>
-      <c r="E126" s="114"/>
-      <c r="F126" s="114"/>
-      <c r="G126" s="114"/>
-      <c r="H126" s="114"/>
-      <c r="I126" s="114"/>
-      <c r="J126" s="114"/>
-      <c r="K126" s="114"/>
-      <c r="L126" s="114"/>
-      <c r="M126" s="114"/>
-      <c r="N126" s="114"/>
-      <c r="O126" s="114"/>
-      <c r="P126" s="114"/>
-      <c r="Q126" s="114"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
+      <c r="F126" s="118"/>
+      <c r="G126" s="118"/>
+      <c r="H126" s="118"/>
+      <c r="I126" s="118"/>
+      <c r="J126" s="118"/>
+      <c r="K126" s="118"/>
+      <c r="L126" s="118"/>
+      <c r="M126" s="118"/>
+      <c r="N126" s="118"/>
+      <c r="O126" s="118"/>
+      <c r="P126" s="118"/>
+      <c r="Q126" s="118"/>
     </row>
     <row r="127" spans="2:54" ht="31" x14ac:dyDescent="0.35">
-      <c r="B127" s="123" t="s">
+      <c r="B127" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="124"/>
-      <c r="D127" s="124"/>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
-      <c r="G127" s="124"/>
-      <c r="H127" s="124"/>
-      <c r="I127" s="124"/>
-      <c r="K127" s="125" t="s">
+      <c r="C127" s="116"/>
+      <c r="D127" s="116"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="116"/>
+      <c r="G127" s="116"/>
+      <c r="H127" s="116"/>
+      <c r="I127" s="116"/>
+      <c r="K127" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="L127" s="125"/>
-      <c r="M127" s="125"/>
-      <c r="N127" s="125"/>
-      <c r="O127" s="125"/>
-      <c r="P127" s="125"/>
-      <c r="Q127" s="125"/>
-      <c r="R127" s="125"/>
-      <c r="T127" s="125" t="s">
+      <c r="L127" s="117"/>
+      <c r="M127" s="117"/>
+      <c r="N127" s="117"/>
+      <c r="O127" s="117"/>
+      <c r="P127" s="117"/>
+      <c r="Q127" s="117"/>
+      <c r="R127" s="117"/>
+      <c r="T127" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="U127" s="125"/>
-      <c r="V127" s="125"/>
-      <c r="W127" s="125"/>
-      <c r="X127" s="125"/>
-      <c r="Y127" s="125"/>
-      <c r="Z127" s="125"/>
-      <c r="AA127" s="125"/>
-      <c r="AC127" s="122" t="s">
+      <c r="U127" s="117"/>
+      <c r="V127" s="117"/>
+      <c r="W127" s="117"/>
+      <c r="X127" s="117"/>
+      <c r="Y127" s="117"/>
+      <c r="Z127" s="117"/>
+      <c r="AA127" s="117"/>
+      <c r="AC127" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AD127" s="122"/>
-      <c r="AE127" s="122"/>
-      <c r="AF127" s="122"/>
-      <c r="AG127" s="122"/>
-      <c r="AH127" s="122"/>
-      <c r="AI127" s="122"/>
-      <c r="AJ127" s="122"/>
-      <c r="AL127" s="122" t="s">
+      <c r="AD127" s="114"/>
+      <c r="AE127" s="114"/>
+      <c r="AF127" s="114"/>
+      <c r="AG127" s="114"/>
+      <c r="AH127" s="114"/>
+      <c r="AI127" s="114"/>
+      <c r="AJ127" s="114"/>
+      <c r="AL127" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="AM127" s="122"/>
-      <c r="AN127" s="122"/>
-      <c r="AO127" s="122"/>
-      <c r="AP127" s="122"/>
-      <c r="AQ127" s="122"/>
-      <c r="AR127" s="122"/>
-      <c r="AS127" s="122"/>
-      <c r="AU127" s="122" t="s">
+      <c r="AM127" s="114"/>
+      <c r="AN127" s="114"/>
+      <c r="AO127" s="114"/>
+      <c r="AP127" s="114"/>
+      <c r="AQ127" s="114"/>
+      <c r="AR127" s="114"/>
+      <c r="AS127" s="114"/>
+      <c r="AU127" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="AV127" s="122"/>
-      <c r="AW127" s="122"/>
-      <c r="AX127" s="122"/>
-      <c r="AY127" s="122"/>
-      <c r="AZ127" s="122"/>
-      <c r="BA127" s="122"/>
-      <c r="BB127" s="122"/>
+      <c r="AV127" s="114"/>
+      <c r="AW127" s="114"/>
+      <c r="AX127" s="114"/>
+      <c r="AY127" s="114"/>
+      <c r="AZ127" s="114"/>
+      <c r="BA127" s="114"/>
+      <c r="BB127" s="114"/>
     </row>
     <row r="128" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
@@ -39881,24 +39881,24 @@
       <c r="BB199" s="126"/>
     </row>
     <row r="200" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B200" s="114" t="s">
+      <c r="B200" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="C200" s="114"/>
-      <c r="D200" s="114"/>
-      <c r="E200" s="114"/>
-      <c r="F200" s="114"/>
-      <c r="G200" s="114"/>
-      <c r="H200" s="114"/>
-      <c r="I200" s="114"/>
-      <c r="J200" s="114"/>
-      <c r="K200" s="114"/>
-      <c r="L200" s="114"/>
-      <c r="M200" s="114"/>
-      <c r="N200" s="114"/>
-      <c r="O200" s="114"/>
-      <c r="P200" s="114"/>
-      <c r="Q200" s="114"/>
+      <c r="C200" s="118"/>
+      <c r="D200" s="118"/>
+      <c r="E200" s="118"/>
+      <c r="F200" s="118"/>
+      <c r="G200" s="118"/>
+      <c r="H200" s="118"/>
+      <c r="I200" s="118"/>
+      <c r="J200" s="118"/>
+      <c r="K200" s="118"/>
+      <c r="L200" s="118"/>
+      <c r="M200" s="118"/>
+      <c r="N200" s="118"/>
+      <c r="O200" s="118"/>
+      <c r="P200" s="118"/>
+      <c r="Q200" s="118"/>
       <c r="AC200" s="94">
         <v>59.090909089999997</v>
       </c>
@@ -39973,102 +39973,102 @@
       </c>
     </row>
     <row r="201" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B201" s="114"/>
-      <c r="C201" s="114"/>
-      <c r="D201" s="114"/>
-      <c r="E201" s="114"/>
-      <c r="F201" s="114"/>
-      <c r="G201" s="114"/>
-      <c r="H201" s="114"/>
-      <c r="I201" s="114"/>
-      <c r="J201" s="114"/>
-      <c r="K201" s="114"/>
-      <c r="L201" s="114"/>
-      <c r="M201" s="114"/>
-      <c r="N201" s="114"/>
-      <c r="O201" s="114"/>
-      <c r="P201" s="114"/>
-      <c r="Q201" s="114"/>
+      <c r="B201" s="118"/>
+      <c r="C201" s="118"/>
+      <c r="D201" s="118"/>
+      <c r="E201" s="118"/>
+      <c r="F201" s="118"/>
+      <c r="G201" s="118"/>
+      <c r="H201" s="118"/>
+      <c r="I201" s="118"/>
+      <c r="J201" s="118"/>
+      <c r="K201" s="118"/>
+      <c r="L201" s="118"/>
+      <c r="M201" s="118"/>
+      <c r="N201" s="118"/>
+      <c r="O201" s="118"/>
+      <c r="P201" s="118"/>
+      <c r="Q201" s="118"/>
     </row>
     <row r="202" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B202" s="114"/>
-      <c r="C202" s="114"/>
-      <c r="D202" s="114"/>
-      <c r="E202" s="114"/>
-      <c r="F202" s="114"/>
-      <c r="G202" s="114"/>
-      <c r="H202" s="114"/>
-      <c r="I202" s="114"/>
-      <c r="J202" s="114"/>
-      <c r="K202" s="114"/>
-      <c r="L202" s="114"/>
-      <c r="M202" s="114"/>
-      <c r="N202" s="114"/>
-      <c r="O202" s="114"/>
-      <c r="P202" s="114"/>
-      <c r="Q202" s="114"/>
+      <c r="B202" s="118"/>
+      <c r="C202" s="118"/>
+      <c r="D202" s="118"/>
+      <c r="E202" s="118"/>
+      <c r="F202" s="118"/>
+      <c r="G202" s="118"/>
+      <c r="H202" s="118"/>
+      <c r="I202" s="118"/>
+      <c r="J202" s="118"/>
+      <c r="K202" s="118"/>
+      <c r="L202" s="118"/>
+      <c r="M202" s="118"/>
+      <c r="N202" s="118"/>
+      <c r="O202" s="118"/>
+      <c r="P202" s="118"/>
+      <c r="Q202" s="118"/>
     </row>
     <row r="203" spans="1:54" ht="31" x14ac:dyDescent="0.35">
-      <c r="B203" s="123" t="s">
+      <c r="B203" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C203" s="124"/>
-      <c r="D203" s="124"/>
-      <c r="E203" s="124"/>
-      <c r="F203" s="124"/>
-      <c r="G203" s="124"/>
-      <c r="H203" s="124"/>
-      <c r="I203" s="124"/>
-      <c r="K203" s="125" t="s">
+      <c r="C203" s="116"/>
+      <c r="D203" s="116"/>
+      <c r="E203" s="116"/>
+      <c r="F203" s="116"/>
+      <c r="G203" s="116"/>
+      <c r="H203" s="116"/>
+      <c r="I203" s="116"/>
+      <c r="K203" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="L203" s="125"/>
-      <c r="M203" s="125"/>
-      <c r="N203" s="125"/>
-      <c r="O203" s="125"/>
-      <c r="P203" s="125"/>
-      <c r="Q203" s="125"/>
-      <c r="R203" s="125"/>
-      <c r="T203" s="125" t="s">
+      <c r="L203" s="117"/>
+      <c r="M203" s="117"/>
+      <c r="N203" s="117"/>
+      <c r="O203" s="117"/>
+      <c r="P203" s="117"/>
+      <c r="Q203" s="117"/>
+      <c r="R203" s="117"/>
+      <c r="T203" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="U203" s="125"/>
-      <c r="V203" s="125"/>
-      <c r="W203" s="125"/>
-      <c r="X203" s="125"/>
-      <c r="Y203" s="125"/>
-      <c r="Z203" s="125"/>
-      <c r="AA203" s="125"/>
-      <c r="AC203" s="122" t="s">
+      <c r="U203" s="117"/>
+      <c r="V203" s="117"/>
+      <c r="W203" s="117"/>
+      <c r="X203" s="117"/>
+      <c r="Y203" s="117"/>
+      <c r="Z203" s="117"/>
+      <c r="AA203" s="117"/>
+      <c r="AC203" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="AD203" s="122"/>
-      <c r="AE203" s="122"/>
-      <c r="AF203" s="122"/>
-      <c r="AG203" s="122"/>
-      <c r="AH203" s="122"/>
-      <c r="AI203" s="122"/>
-      <c r="AJ203" s="122"/>
-      <c r="AL203" s="122" t="s">
+      <c r="AD203" s="114"/>
+      <c r="AE203" s="114"/>
+      <c r="AF203" s="114"/>
+      <c r="AG203" s="114"/>
+      <c r="AH203" s="114"/>
+      <c r="AI203" s="114"/>
+      <c r="AJ203" s="114"/>
+      <c r="AL203" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="AM203" s="122"/>
-      <c r="AN203" s="122"/>
-      <c r="AO203" s="122"/>
-      <c r="AP203" s="122"/>
-      <c r="AQ203" s="122"/>
-      <c r="AR203" s="122"/>
-      <c r="AS203" s="122"/>
-      <c r="AU203" s="122" t="s">
+      <c r="AM203" s="114"/>
+      <c r="AN203" s="114"/>
+      <c r="AO203" s="114"/>
+      <c r="AP203" s="114"/>
+      <c r="AQ203" s="114"/>
+      <c r="AR203" s="114"/>
+      <c r="AS203" s="114"/>
+      <c r="AU203" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="AV203" s="122"/>
-      <c r="AW203" s="122"/>
-      <c r="AX203" s="122"/>
-      <c r="AY203" s="122"/>
-      <c r="AZ203" s="122"/>
-      <c r="BA203" s="122"/>
-      <c r="BB203" s="122"/>
+      <c r="AV203" s="114"/>
+      <c r="AW203" s="114"/>
+      <c r="AX203" s="114"/>
+      <c r="AY203" s="114"/>
+      <c r="AZ203" s="114"/>
+      <c r="BA203" s="114"/>
+      <c r="BB203" s="114"/>
     </row>
     <row r="204" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B204" s="9" t="s">
@@ -45582,10 +45582,10 @@
       </c>
     </row>
     <row r="239" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A239" s="127" t="s">
+      <c r="A239" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="B239" s="127"/>
+      <c r="B239" s="113"/>
       <c r="AC239" s="86">
         <f>COUNTIF(AC205:AC234, "&gt;0")</f>
         <v>18</v>
@@ -45684,8 +45684,8 @@
       </c>
     </row>
     <row r="240" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="127"/>
-      <c r="B240" s="127"/>
+      <c r="A240" s="113"/>
+      <c r="B240" s="113"/>
       <c r="AC240" s="87" t="s">
         <v>128</v>
       </c>
@@ -46223,62 +46223,62 @@
       </c>
     </row>
     <row r="246" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC246" s="113" t="s">
+      <c r="AC246" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="AD246" s="113"/>
-      <c r="AE246" s="113"/>
-      <c r="AF246" s="113"/>
-      <c r="AG246" s="113"/>
-      <c r="AH246" s="113"/>
-      <c r="AI246" s="113"/>
-      <c r="AJ246" s="113"/>
-      <c r="AL246" s="113" t="s">
+      <c r="AD246" s="127"/>
+      <c r="AE246" s="127"/>
+      <c r="AF246" s="127"/>
+      <c r="AG246" s="127"/>
+      <c r="AH246" s="127"/>
+      <c r="AI246" s="127"/>
+      <c r="AJ246" s="127"/>
+      <c r="AL246" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="AM246" s="113"/>
-      <c r="AN246" s="113"/>
-      <c r="AO246" s="113"/>
-      <c r="AP246" s="113"/>
-      <c r="AQ246" s="113"/>
-      <c r="AR246" s="113"/>
-      <c r="AS246" s="113"/>
-      <c r="AU246" s="113" t="s">
+      <c r="AM246" s="127"/>
+      <c r="AN246" s="127"/>
+      <c r="AO246" s="127"/>
+      <c r="AP246" s="127"/>
+      <c r="AQ246" s="127"/>
+      <c r="AR246" s="127"/>
+      <c r="AS246" s="127"/>
+      <c r="AU246" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="AV246" s="113"/>
-      <c r="AW246" s="113"/>
-      <c r="AX246" s="113"/>
-      <c r="AY246" s="113"/>
-      <c r="AZ246" s="113"/>
-      <c r="BA246" s="113"/>
-      <c r="BB246" s="113"/>
+      <c r="AV246" s="127"/>
+      <c r="AW246" s="127"/>
+      <c r="AX246" s="127"/>
+      <c r="AY246" s="127"/>
+      <c r="AZ246" s="127"/>
+      <c r="BA246" s="127"/>
+      <c r="BB246" s="127"/>
     </row>
     <row r="247" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC247" s="113"/>
-      <c r="AD247" s="113"/>
-      <c r="AE247" s="113"/>
-      <c r="AF247" s="113"/>
-      <c r="AG247" s="113"/>
-      <c r="AH247" s="113"/>
-      <c r="AI247" s="113"/>
-      <c r="AJ247" s="113"/>
-      <c r="AL247" s="113"/>
-      <c r="AM247" s="113"/>
-      <c r="AN247" s="113"/>
-      <c r="AO247" s="113"/>
-      <c r="AP247" s="113"/>
-      <c r="AQ247" s="113"/>
-      <c r="AR247" s="113"/>
-      <c r="AS247" s="113"/>
-      <c r="AU247" s="113"/>
-      <c r="AV247" s="113"/>
-      <c r="AW247" s="113"/>
-      <c r="AX247" s="113"/>
-      <c r="AY247" s="113"/>
-      <c r="AZ247" s="113"/>
-      <c r="BA247" s="113"/>
-      <c r="BB247" s="113"/>
+      <c r="AC247" s="127"/>
+      <c r="AD247" s="127"/>
+      <c r="AE247" s="127"/>
+      <c r="AF247" s="127"/>
+      <c r="AG247" s="127"/>
+      <c r="AH247" s="127"/>
+      <c r="AI247" s="127"/>
+      <c r="AJ247" s="127"/>
+      <c r="AL247" s="127"/>
+      <c r="AM247" s="127"/>
+      <c r="AN247" s="127"/>
+      <c r="AO247" s="127"/>
+      <c r="AP247" s="127"/>
+      <c r="AQ247" s="127"/>
+      <c r="AR247" s="127"/>
+      <c r="AS247" s="127"/>
+      <c r="AU247" s="127"/>
+      <c r="AV247" s="127"/>
+      <c r="AW247" s="127"/>
+      <c r="AX247" s="127"/>
+      <c r="AY247" s="127"/>
+      <c r="AZ247" s="127"/>
+      <c r="BA247" s="127"/>
+      <c r="BB247" s="127"/>
     </row>
     <row r="248" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AC248" s="85" t="s">
@@ -46969,62 +46969,62 @@
       </c>
     </row>
     <row r="256" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AC256" s="113" t="s">
+      <c r="AC256" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="AD256" s="113"/>
-      <c r="AE256" s="113"/>
-      <c r="AF256" s="113"/>
-      <c r="AG256" s="113"/>
-      <c r="AH256" s="113"/>
-      <c r="AI256" s="113"/>
-      <c r="AJ256" s="113"/>
-      <c r="AL256" s="113" t="s">
+      <c r="AD256" s="127"/>
+      <c r="AE256" s="127"/>
+      <c r="AF256" s="127"/>
+      <c r="AG256" s="127"/>
+      <c r="AH256" s="127"/>
+      <c r="AI256" s="127"/>
+      <c r="AJ256" s="127"/>
+      <c r="AL256" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="AM256" s="113"/>
-      <c r="AN256" s="113"/>
-      <c r="AO256" s="113"/>
-      <c r="AP256" s="113"/>
-      <c r="AQ256" s="113"/>
-      <c r="AR256" s="113"/>
-      <c r="AS256" s="113"/>
-      <c r="AU256" s="113" t="s">
+      <c r="AM256" s="127"/>
+      <c r="AN256" s="127"/>
+      <c r="AO256" s="127"/>
+      <c r="AP256" s="127"/>
+      <c r="AQ256" s="127"/>
+      <c r="AR256" s="127"/>
+      <c r="AS256" s="127"/>
+      <c r="AU256" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="AV256" s="113"/>
-      <c r="AW256" s="113"/>
-      <c r="AX256" s="113"/>
-      <c r="AY256" s="113"/>
-      <c r="AZ256" s="113"/>
-      <c r="BA256" s="113"/>
-      <c r="BB256" s="113"/>
+      <c r="AV256" s="127"/>
+      <c r="AW256" s="127"/>
+      <c r="AX256" s="127"/>
+      <c r="AY256" s="127"/>
+      <c r="AZ256" s="127"/>
+      <c r="BA256" s="127"/>
+      <c r="BB256" s="127"/>
     </row>
     <row r="257" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AC257" s="113"/>
-      <c r="AD257" s="113"/>
-      <c r="AE257" s="113"/>
-      <c r="AF257" s="113"/>
-      <c r="AG257" s="113"/>
-      <c r="AH257" s="113"/>
-      <c r="AI257" s="113"/>
-      <c r="AJ257" s="113"/>
-      <c r="AL257" s="113"/>
-      <c r="AM257" s="113"/>
-      <c r="AN257" s="113"/>
-      <c r="AO257" s="113"/>
-      <c r="AP257" s="113"/>
-      <c r="AQ257" s="113"/>
-      <c r="AR257" s="113"/>
-      <c r="AS257" s="113"/>
-      <c r="AU257" s="113"/>
-      <c r="AV257" s="113"/>
-      <c r="AW257" s="113"/>
-      <c r="AX257" s="113"/>
-      <c r="AY257" s="113"/>
-      <c r="AZ257" s="113"/>
-      <c r="BA257" s="113"/>
-      <c r="BB257" s="113"/>
+      <c r="AC257" s="127"/>
+      <c r="AD257" s="127"/>
+      <c r="AE257" s="127"/>
+      <c r="AF257" s="127"/>
+      <c r="AG257" s="127"/>
+      <c r="AH257" s="127"/>
+      <c r="AI257" s="127"/>
+      <c r="AJ257" s="127"/>
+      <c r="AL257" s="127"/>
+      <c r="AM257" s="127"/>
+      <c r="AN257" s="127"/>
+      <c r="AO257" s="127"/>
+      <c r="AP257" s="127"/>
+      <c r="AQ257" s="127"/>
+      <c r="AR257" s="127"/>
+      <c r="AS257" s="127"/>
+      <c r="AU257" s="127"/>
+      <c r="AV257" s="127"/>
+      <c r="AW257" s="127"/>
+      <c r="AX257" s="127"/>
+      <c r="AY257" s="127"/>
+      <c r="AZ257" s="127"/>
+      <c r="BA257" s="127"/>
+      <c r="BB257" s="127"/>
     </row>
     <row r="258" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AC258" s="85" t="s">
@@ -47715,76 +47715,76 @@
       </c>
     </row>
     <row r="267" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="115" t="s">
+      <c r="B267" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="C267" s="116"/>
-      <c r="D267" s="116"/>
-      <c r="E267" s="116"/>
-      <c r="F267" s="116"/>
-      <c r="G267" s="116"/>
-      <c r="H267" s="116"/>
-      <c r="I267" s="116"/>
-      <c r="J267" s="116"/>
-      <c r="K267" s="116"/>
-      <c r="L267" s="116"/>
-      <c r="M267" s="116"/>
-      <c r="N267" s="116"/>
-      <c r="O267" s="116"/>
-      <c r="P267" s="116"/>
-      <c r="Q267" s="117"/>
-      <c r="T267" s="115" t="s">
+      <c r="C267" s="120"/>
+      <c r="D267" s="120"/>
+      <c r="E267" s="120"/>
+      <c r="F267" s="120"/>
+      <c r="G267" s="120"/>
+      <c r="H267" s="120"/>
+      <c r="I267" s="120"/>
+      <c r="J267" s="120"/>
+      <c r="K267" s="120"/>
+      <c r="L267" s="120"/>
+      <c r="M267" s="120"/>
+      <c r="N267" s="120"/>
+      <c r="O267" s="120"/>
+      <c r="P267" s="120"/>
+      <c r="Q267" s="121"/>
+      <c r="T267" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="U267" s="116"/>
-      <c r="V267" s="116"/>
-      <c r="W267" s="116"/>
-      <c r="X267" s="116"/>
-      <c r="Y267" s="116"/>
-      <c r="Z267" s="116"/>
-      <c r="AA267" s="116"/>
-      <c r="AB267" s="116"/>
-      <c r="AC267" s="116"/>
-      <c r="AD267" s="116"/>
-      <c r="AE267" s="116"/>
-      <c r="AF267" s="116"/>
-      <c r="AG267" s="116"/>
-      <c r="AH267" s="116"/>
-      <c r="AI267" s="117"/>
+      <c r="U267" s="120"/>
+      <c r="V267" s="120"/>
+      <c r="W267" s="120"/>
+      <c r="X267" s="120"/>
+      <c r="Y267" s="120"/>
+      <c r="Z267" s="120"/>
+      <c r="AA267" s="120"/>
+      <c r="AB267" s="120"/>
+      <c r="AC267" s="120"/>
+      <c r="AD267" s="120"/>
+      <c r="AE267" s="120"/>
+      <c r="AF267" s="120"/>
+      <c r="AG267" s="120"/>
+      <c r="AH267" s="120"/>
+      <c r="AI267" s="121"/>
     </row>
     <row r="268" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B268" s="118"/>
-      <c r="C268" s="119"/>
-      <c r="D268" s="119"/>
-      <c r="E268" s="119"/>
-      <c r="F268" s="119"/>
-      <c r="G268" s="119"/>
-      <c r="H268" s="119"/>
-      <c r="I268" s="119"/>
-      <c r="J268" s="119"/>
-      <c r="K268" s="119"/>
-      <c r="L268" s="119"/>
-      <c r="M268" s="119"/>
-      <c r="N268" s="119"/>
-      <c r="O268" s="119"/>
-      <c r="P268" s="119"/>
-      <c r="Q268" s="120"/>
-      <c r="T268" s="118"/>
-      <c r="U268" s="119"/>
-      <c r="V268" s="119"/>
-      <c r="W268" s="119"/>
-      <c r="X268" s="119"/>
-      <c r="Y268" s="119"/>
-      <c r="Z268" s="119"/>
-      <c r="AA268" s="119"/>
-      <c r="AB268" s="119"/>
-      <c r="AC268" s="119"/>
-      <c r="AD268" s="119"/>
-      <c r="AE268" s="119"/>
-      <c r="AF268" s="119"/>
-      <c r="AG268" s="119"/>
-      <c r="AH268" s="119"/>
-      <c r="AI268" s="120"/>
+      <c r="B268" s="122"/>
+      <c r="C268" s="123"/>
+      <c r="D268" s="123"/>
+      <c r="E268" s="123"/>
+      <c r="F268" s="123"/>
+      <c r="G268" s="123"/>
+      <c r="H268" s="123"/>
+      <c r="I268" s="123"/>
+      <c r="J268" s="123"/>
+      <c r="K268" s="123"/>
+      <c r="L268" s="123"/>
+      <c r="M268" s="123"/>
+      <c r="N268" s="123"/>
+      <c r="O268" s="123"/>
+      <c r="P268" s="123"/>
+      <c r="Q268" s="124"/>
+      <c r="T268" s="122"/>
+      <c r="U268" s="123"/>
+      <c r="V268" s="123"/>
+      <c r="W268" s="123"/>
+      <c r="X268" s="123"/>
+      <c r="Y268" s="123"/>
+      <c r="Z268" s="123"/>
+      <c r="AA268" s="123"/>
+      <c r="AB268" s="123"/>
+      <c r="AC268" s="123"/>
+      <c r="AD268" s="123"/>
+      <c r="AE268" s="123"/>
+      <c r="AF268" s="123"/>
+      <c r="AG268" s="123"/>
+      <c r="AH268" s="123"/>
+      <c r="AI268" s="124"/>
     </row>
     <row r="269" spans="1:54" ht="100" x14ac:dyDescent="0.2">
       <c r="B269" s="53" t="s">
@@ -49087,19 +49087,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A239:B240"/>
-    <mergeCell ref="AU203:BB203"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="K203:R203"/>
-    <mergeCell ref="T203:AA203"/>
-    <mergeCell ref="AC203:AJ203"/>
-    <mergeCell ref="AL203:AS203"/>
-    <mergeCell ref="B127:I127"/>
-    <mergeCell ref="AU127:BB127"/>
-    <mergeCell ref="AL127:AS127"/>
-    <mergeCell ref="AC127:AJ127"/>
-    <mergeCell ref="T127:AA127"/>
-    <mergeCell ref="K127:R127"/>
+    <mergeCell ref="AC246:AJ247"/>
+    <mergeCell ref="AL246:AS247"/>
+    <mergeCell ref="AU246:BB247"/>
+    <mergeCell ref="AC256:AJ257"/>
+    <mergeCell ref="AL256:AS257"/>
+    <mergeCell ref="AU256:BB257"/>
     <mergeCell ref="B200:Q202"/>
     <mergeCell ref="T267:AI268"/>
     <mergeCell ref="B124:Q126"/>
@@ -49116,12 +49109,19 @@
     <mergeCell ref="AU199:BB199"/>
     <mergeCell ref="AL199:AS199"/>
     <mergeCell ref="AC199:AJ199"/>
-    <mergeCell ref="AC246:AJ247"/>
-    <mergeCell ref="AL246:AS247"/>
-    <mergeCell ref="AU246:BB247"/>
-    <mergeCell ref="AC256:AJ257"/>
-    <mergeCell ref="AL256:AS257"/>
-    <mergeCell ref="AU256:BB257"/>
+    <mergeCell ref="B127:I127"/>
+    <mergeCell ref="AU127:BB127"/>
+    <mergeCell ref="AL127:AS127"/>
+    <mergeCell ref="AC127:AJ127"/>
+    <mergeCell ref="T127:AA127"/>
+    <mergeCell ref="K127:R127"/>
+    <mergeCell ref="A239:B240"/>
+    <mergeCell ref="AU203:BB203"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="K203:R203"/>
+    <mergeCell ref="T203:AA203"/>
+    <mergeCell ref="AC203:AJ203"/>
+    <mergeCell ref="AL203:AS203"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
